--- a/BASE DE DADOS.RPS.TESTE.Copia.xlsx
+++ b/BASE DE DADOS.RPS.TESTE.Copia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinicius.dossantos\Favorites\PYTHON\GITHUB\CODES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0C7958-1B56-47D6-9EEB-F22221893FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3208CF9D-2089-494B-B0BF-B92553955AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,147 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>RPS</t>
   </si>
   <si>
     <t>TRANSACAO</t>
-  </si>
-  <si>
-    <t>318005</t>
-  </si>
-  <si>
-    <t>731018</t>
-  </si>
-  <si>
-    <t>1079036</t>
-  </si>
-  <si>
-    <t>980021</t>
-  </si>
-  <si>
-    <t>1246040</t>
-  </si>
-  <si>
-    <t>1520039</t>
-  </si>
-  <si>
-    <t>1738046</t>
-  </si>
-  <si>
-    <t>1412029</t>
-  </si>
-  <si>
-    <t>1422030</t>
-  </si>
-  <si>
-    <t>1629034</t>
-  </si>
-  <si>
-    <t>1550033</t>
-  </si>
-  <si>
-    <t>1606041</t>
-  </si>
-  <si>
-    <t>1605037</t>
-  </si>
-  <si>
-    <t>1601049</t>
-  </si>
-  <si>
-    <t>1563042</t>
-  </si>
-  <si>
-    <t>1565031</t>
-  </si>
-  <si>
-    <t>1738043</t>
-  </si>
-  <si>
-    <t>1713042</t>
-  </si>
-  <si>
-    <t>1706035</t>
-  </si>
-  <si>
-    <t>1699034</t>
-  </si>
-  <si>
-    <t>1684035</t>
-  </si>
-  <si>
-    <t>1713035</t>
-  </si>
-  <si>
-    <t>1817041</t>
-  </si>
-  <si>
-    <t>1701039</t>
-  </si>
-  <si>
-    <t>1737053</t>
-  </si>
-  <si>
-    <t>1738047</t>
-  </si>
-  <si>
-    <t>1717032</t>
-  </si>
-  <si>
-    <t>1738049</t>
-  </si>
-  <si>
-    <t>1720044</t>
-  </si>
-  <si>
-    <t>1802036</t>
-  </si>
-  <si>
-    <t>1768032</t>
-  </si>
-  <si>
-    <t>1736052</t>
-  </si>
-  <si>
-    <t>1736034</t>
-  </si>
-  <si>
-    <t>1749054</t>
-  </si>
-  <si>
-    <t>96001</t>
-  </si>
-  <si>
-    <t>1759032</t>
-  </si>
-  <si>
-    <t>1759043</t>
-  </si>
-  <si>
-    <t>1800036</t>
-  </si>
-  <si>
-    <t>1764038</t>
-  </si>
-  <si>
-    <t>1764036</t>
-  </si>
-  <si>
-    <t>1807040</t>
-  </si>
-  <si>
-    <t>1802040</t>
-  </si>
-  <si>
-    <t>1806038</t>
-  </si>
-  <si>
-    <t>1778032</t>
-  </si>
-  <si>
-    <t>1818036</t>
   </si>
 </sst>
 </file>
@@ -254,12 +119,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,15 +410,16 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -559,365 +427,193 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
+    <row r="2" spans="1:2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>123231</v>
       </c>
       <c r="B2" s="2">
         <v>12345</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
+    <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>231231</v>
       </c>
       <c r="B3" s="2">
         <v>12345</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2">
-        <v>12345</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2">
-        <v>12345</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2">
-        <v>12345</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
-        <v>12345</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2">
-        <v>12345</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2">
-        <v>12345</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2">
-        <v>12345</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2">
-        <v>12345</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2">
-        <v>12345</v>
-      </c>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2">
-        <v>12345</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2">
-        <v>12345</v>
-      </c>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2">
-        <v>12345</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2">
-        <v>12345</v>
-      </c>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="2">
-        <v>12345</v>
-      </c>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="2">
-        <v>12345</v>
-      </c>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="2">
-        <v>12345</v>
-      </c>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2">
-        <v>12345</v>
-      </c>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="2">
-        <v>12345</v>
-      </c>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="2">
-        <v>12345</v>
-      </c>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="2">
-        <v>12345</v>
-      </c>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="2">
-        <v>12345</v>
-      </c>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="2">
-        <v>12345</v>
-      </c>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="2">
-        <v>12345</v>
-      </c>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="2">
-        <v>12345</v>
-      </c>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="2">
-        <v>12345</v>
-      </c>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="2">
-        <v>12345</v>
-      </c>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="2">
-        <v>12345</v>
-      </c>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="2">
-        <v>12345</v>
-      </c>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="2">
-        <v>12345</v>
-      </c>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="2">
-        <v>12345</v>
-      </c>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="2">
-        <v>12345</v>
-      </c>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="2">
-        <v>12345</v>
-      </c>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="2">
-        <v>12345</v>
-      </c>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="2">
-        <v>12345</v>
-      </c>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="2">
-        <v>12345</v>
-      </c>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="2">
-        <v>12345</v>
-      </c>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="2">
-        <v>12345</v>
-      </c>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="2">
-        <v>12345</v>
-      </c>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="2">
-        <v>12345</v>
-      </c>
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="2">
-        <v>12345</v>
-      </c>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="2">
-        <v>12345</v>
-      </c>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" s="2">
-        <v>12345</v>
-      </c>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" s="2">
-        <v>12345</v>
-      </c>
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
